--- a/scene_cat_exp_2023.2.2_english/input_files/81_scenecat_memory_kitchens_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/81_scenecat_memory_kitchens_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,38 +512,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_mjxmq.png</t>
+          <t>stimuli/img_mgnmm.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>77.07692307692308</v>
+        <v>79.14705882352941</v>
       </c>
       <c r="N2">
-        <v>58.15384615384615</v>
+        <v>60.38235294117647</v>
       </c>
       <c r="O2">
-        <v>67.61538461538461</v>
+        <v>69.76470588235294</v>
       </c>
       <c r="P2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -577,50 +577,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_z293c.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>71.26470588235294</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N3">
-        <v>46.88235294117647</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O3">
-        <v>59.07352941176471</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -671,38 +676,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_cnyac.png</t>
+          <t>stimuli/img_t90e2.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>69.14705882352941</v>
+        <v>83.0625</v>
       </c>
       <c r="N4">
-        <v>47.8235294117647</v>
+        <v>61.96875</v>
       </c>
       <c r="O4">
-        <v>58.48529411764706</v>
+        <v>72.515625</v>
       </c>
       <c r="P4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -753,38 +758,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_30vz5.png</t>
+          <t>stimuli/img_yeh72.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>86.21212121212122</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="N5">
-        <v>68.27272727272727</v>
+        <v>45.21212121212121</v>
       </c>
       <c r="O5">
-        <v>77.24242424242425</v>
+        <v>56.93939393939394</v>
       </c>
       <c r="P5">
         <v>33</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -806,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -830,38 +835,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_ewrjk.png</t>
+          <t>stimuli/img_mawe6.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>73.09090909090909</v>
+        <v>83.48387096774194</v>
       </c>
       <c r="N6">
-        <v>53.39393939393939</v>
+        <v>65.54838709677419</v>
       </c>
       <c r="O6">
-        <v>63.24242424242424</v>
+        <v>74.51612903225806</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -883,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -895,55 +900,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_ce9vx.png</t>
+          <t>stimuli/img_z293c.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>75.90909090909091</v>
+        <v>71.26470588235294</v>
       </c>
       <c r="N7">
-        <v>57.12121212121212</v>
+        <v>46.88235294117647</v>
       </c>
       <c r="O7">
-        <v>66.51515151515152</v>
+        <v>59.07352941176471</v>
       </c>
       <c r="P7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -994,38 +994,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_6nbgt.png</t>
+          <t>stimuli/img_cv6mf.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>78.45161290322581</v>
+        <v>66.8</v>
       </c>
       <c r="N8">
-        <v>57.83870967741935</v>
+        <v>42.08</v>
       </c>
       <c r="O8">
-        <v>68.14516129032258</v>
+        <v>54.44</v>
       </c>
       <c r="P8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1059,55 +1059,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_p659z.png</t>
+          <t>stimuli/img_1ao2d.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>84.21621621621621</v>
+        <v>38.77777777777778</v>
       </c>
       <c r="N9">
-        <v>65.37837837837837</v>
+        <v>18.75</v>
       </c>
       <c r="O9">
-        <v>74.79729729729729</v>
+        <v>28.76388888888889</v>
       </c>
       <c r="P9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1129,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1141,55 +1136,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_njmgp.png</t>
+          <t>stimuli/img_ikk62.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>80.48148148148148</v>
+        <v>37.48780487804878</v>
       </c>
       <c r="N10">
-        <v>58.4074074074074</v>
+        <v>21.07317073170732</v>
       </c>
       <c r="O10">
-        <v>69.44444444444444</v>
+        <v>29.28048780487805</v>
       </c>
       <c r="P10">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1211,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1223,50 +1213,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_r2lxk.png</t>
+          <t>stimuli/img_6nbgt.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>89.24242424242425</v>
+        <v>78.45161290322581</v>
       </c>
       <c r="N11">
-        <v>67.6969696969697</v>
+        <v>57.83870967741935</v>
       </c>
       <c r="O11">
-        <v>78.46969696969697</v>
+        <v>68.14516129032258</v>
       </c>
       <c r="P11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1288,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1300,55 +1295,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_7wul8.png</t>
+          <t>stimuli/img_wppku.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>43.03030303030303</v>
+        <v>75.02941176470588</v>
       </c>
       <c r="N12">
-        <v>25.54545454545455</v>
+        <v>53.05882352941177</v>
       </c>
       <c r="O12">
-        <v>34.28787878787879</v>
+        <v>64.04411764705883</v>
       </c>
       <c r="P12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1370,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1399,38 +1389,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_t90e2.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>83.0625</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N13">
-        <v>61.96875</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O13">
-        <v>72.515625</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1452,21 +1442,16 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>kitchens</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1476,38 +1461,8 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_qmgwq.png</t>
-        </is>
-      </c>
-      <c r="M14">
-        <v>84.58333333333333</v>
-      </c>
-      <c r="N14">
-        <v>64.44444444444444</v>
-      </c>
-      <c r="O14">
-        <v>74.51388888888889</v>
-      </c>
-      <c r="P14">
-        <v>36</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
-      </c>
-      <c r="R14">
-        <v>9</v>
-      </c>
-      <c r="S14">
-        <v>9</v>
-      </c>
-      <c r="T14">
-        <v>9</v>
-      </c>
-      <c r="U14">
-        <v>9</v>
-      </c>
-      <c r="V14">
-        <v>9</v>
+          <t>stimuli/catch_29.jpg</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1529,7 +1484,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1541,50 +1496,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_7ucnr.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>70.39393939393939</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N15">
-        <v>47.90909090909091</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O15">
-        <v>59.15151515151515</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P15">
         <v>33</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1606,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1618,55 +1578,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_yeh72.png</t>
+          <t>stimuli/img_7w5tw.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>68.66666666666667</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N16">
-        <v>45.21212121212121</v>
+        <v>28.90322580645161</v>
       </c>
       <c r="O16">
-        <v>56.93939393939394</v>
+        <v>41.06451612903226</v>
       </c>
       <c r="P16">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1688,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1712,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_mawe6.png</t>
+          <t>stimuli/img_r2lxk.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>83.48387096774194</v>
+        <v>89.24242424242425</v>
       </c>
       <c r="N17">
-        <v>65.54838709677419</v>
+        <v>67.6969696969697</v>
       </c>
       <c r="O17">
-        <v>74.51612903225806</v>
+        <v>78.46969696969697</v>
       </c>
       <c r="P17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1765,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1777,55 +1732,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_eatdk.png</t>
+          <t>stimuli/img_esb4r.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>81.40625</v>
+        <v>60.73529411764706</v>
       </c>
       <c r="N18">
-        <v>61.375</v>
+        <v>38.58823529411764</v>
       </c>
       <c r="O18">
-        <v>71.390625</v>
+        <v>49.66176470588235</v>
       </c>
       <c r="P18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1871,38 +1821,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_7ed9m.png</t>
+          <t>stimuli/img_ewrjk.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>80.71875</v>
+        <v>73.09090909090909</v>
       </c>
       <c r="N19">
-        <v>58.65625</v>
+        <v>53.39393939393939</v>
       </c>
       <c r="O19">
-        <v>69.6875</v>
+        <v>63.24242424242424</v>
       </c>
       <c r="P19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1924,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1936,32 +1886,37 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_esb4r.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>60.73529411764706</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N20">
-        <v>38.58823529411764</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O20">
-        <v>49.66176470588235</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -2001,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2025,38 +1980,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_lszzj.png</t>
+          <t>stimuli/img_qmgwq.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>64.70588235294117</v>
+        <v>84.58333333333333</v>
       </c>
       <c r="N21">
-        <v>45.58823529411764</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="O21">
-        <v>55.14705882352941</v>
+        <v>74.51388888888889</v>
       </c>
       <c r="P21">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V21">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2078,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2090,50 +2045,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_xdhz2.png</t>
+          <t>stimuli/img_p659z.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>63.3</v>
+        <v>84.21621621621621</v>
       </c>
       <c r="N22">
-        <v>37.25</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="O22">
-        <v>50.275</v>
+        <v>74.79729729729729</v>
       </c>
       <c r="P22">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2155,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2167,50 +2127,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_ikk62.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>37.48780487804878</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N23">
-        <v>21.07317073170732</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O23">
-        <v>29.28048780487805</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P23">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2232,7 +2197,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2256,38 +2221,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_wppku.png</t>
+          <t>stimuli/img_7ed9m.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>75.02941176470588</v>
+        <v>80.71875</v>
       </c>
       <c r="N24">
-        <v>53.05882352941177</v>
+        <v>58.65625</v>
       </c>
       <c r="O24">
-        <v>64.04411764705883</v>
+        <v>69.6875</v>
       </c>
       <c r="P24">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2309,7 +2274,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2338,38 +2303,38 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_es7o2.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>52.48571428571429</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N25">
-        <v>27.54285714285714</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O25">
-        <v>40.01428571428572</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2391,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2403,50 +2368,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_mgnmm.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>79.14705882352941</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N26">
-        <v>60.38235294117647</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O26">
-        <v>69.76470588235294</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2468,7 +2438,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2497,20 +2467,20 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_ye5sl.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>53.2258064516129</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N27">
-        <v>34.45161290322581</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O27">
-        <v>43.83870967741936</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P27">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -2550,27 +2520,67 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>kitchens</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/catch_20.jpg</t>
-        </is>
+          <t>stimuli/img_cnyac.png</t>
+        </is>
+      </c>
+      <c r="M28">
+        <v>69.14705882352941</v>
+      </c>
+      <c r="N28">
+        <v>47.8235294117647</v>
+      </c>
+      <c r="O28">
+        <v>58.48529411764706</v>
+      </c>
+      <c r="P28">
+        <v>34</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>5</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2592,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2616,20 +2626,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_zi8qc.png</t>
+          <t>stimuli/img_mjxmq.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>77.14285714285714</v>
+        <v>77.07692307692308</v>
       </c>
       <c r="N29">
-        <v>57.02857142857143</v>
+        <v>58.15384615384615</v>
       </c>
       <c r="O29">
-        <v>67.08571428571429</v>
+        <v>67.61538461538461</v>
       </c>
       <c r="P29">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -2669,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2681,50 +2691,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_vbrb7.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>85.5625</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N30">
-        <v>71.46875</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O30">
-        <v>78.515625</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2746,7 +2761,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2758,55 +2773,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_aplao.png</t>
+          <t>stimuli/img_vbrb7.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>64.09090909090909</v>
+        <v>85.5625</v>
       </c>
       <c r="N31">
-        <v>40.75757575757576</v>
+        <v>71.46875</v>
       </c>
       <c r="O31">
-        <v>52.42424242424242</v>
+        <v>78.515625</v>
       </c>
       <c r="P31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V31">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2828,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2905,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2934,38 +2944,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_inqod.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>70.84848484848484</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N33">
-        <v>50.63636363636363</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O33">
-        <v>60.74242424242424</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P33">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -2987,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3011,38 +3021,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_7w5tw.png</t>
+          <t>stimuli/img_xdhz2.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>53.2258064516129</v>
+        <v>63.3</v>
       </c>
       <c r="N34">
-        <v>28.90322580645161</v>
+        <v>37.25</v>
       </c>
       <c r="O34">
-        <v>41.06451612903226</v>
+        <v>50.275</v>
       </c>
       <c r="P34">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -3064,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3093,38 +3103,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_cv6mf.png</t>
+          <t>stimuli/img_eatdk.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>66.8</v>
+        <v>81.40625</v>
       </c>
       <c r="N35">
-        <v>42.08</v>
+        <v>61.375</v>
       </c>
       <c r="O35">
-        <v>54.44</v>
+        <v>71.390625</v>
       </c>
       <c r="P35">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V35">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -3146,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3175,38 +3185,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_nyv2b.png</t>
+          <t>stimuli/img_njmgp.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>11.91176470588235</v>
+        <v>80.48148148148148</v>
       </c>
       <c r="N36">
-        <v>6.852941176470588</v>
+        <v>58.4074074074074</v>
       </c>
       <c r="O36">
-        <v>9.382352941176471</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="P36">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -3228,7 +3238,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3240,50 +3250,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_89rmb.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>55.18518518518518</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N37">
-        <v>29.25925925925926</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O37">
-        <v>42.22222222222222</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P37">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3305,7 +3320,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3317,55 +3332,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_p3hpc.png</t>
+          <t>stimuli/img_89rmb.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>72.83333333333333</v>
+        <v>55.18518518518518</v>
       </c>
       <c r="N38">
-        <v>52.22222222222222</v>
+        <v>29.25925925925926</v>
       </c>
       <c r="O38">
-        <v>62.52777777777777</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="P38">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V38">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3387,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3399,55 +3409,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_d8xbu.png</t>
+          <t>stimuli/img_7ucnr.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>91.36363636363636</v>
+        <v>70.39393939393939</v>
       </c>
       <c r="N39">
-        <v>73.18181818181819</v>
+        <v>47.90909090909091</v>
       </c>
       <c r="O39">
-        <v>82.27272727272728</v>
+        <v>59.15151515151515</v>
       </c>
       <c r="P39">
         <v>33</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V39">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -3469,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3481,50 +3486,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_1ao2d.png</t>
+          <t>stimuli/img_30vz5.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>38.77777777777778</v>
+        <v>86.21212121212122</v>
       </c>
       <c r="N40">
-        <v>18.75</v>
+        <v>68.27272727272727</v>
       </c>
       <c r="O40">
-        <v>28.76388888888889</v>
+        <v>77.24242424242425</v>
       </c>
       <c r="P40">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -3546,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3558,55 +3568,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_wyl6z.png</t>
+          <t>stimuli/img_zi8qc.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>59.8235294117647</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N41">
-        <v>36.23529411764706</v>
+        <v>57.02857142857143</v>
       </c>
       <c r="O41">
-        <v>48.02941176470588</v>
+        <v>67.08571428571429</v>
       </c>
       <c r="P41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -3628,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3640,55 +3645,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_iyxnj.png</t>
+          <t>stimuli/img_lszzj.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>75.30555555555556</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="N42">
-        <v>54.33333333333334</v>
+        <v>45.58823529411764</v>
       </c>
       <c r="O42">
-        <v>64.81944444444444</v>
+        <v>55.14705882352941</v>
       </c>
       <c r="P42">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V42">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
